--- a/PHP travel Testcases.xlsx
+++ b/PHP travel Testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SBPInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A021E5F0-B51A-44D3-BF88-7DD3793451FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{871E4530-94A7-48F6-B427-C47AF9C1D0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Critical</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Actual Result Of Test</t>
-  </si>
-  <si>
     <t>Expected Result Of Test</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>Total: Tests Passed Partial</t>
-  </si>
-  <si>
-    <t>Not Yet Tested</t>
   </si>
   <si>
     <t>User must be logged in</t>
@@ -216,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +325,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +349,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,16 +440,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,10 +779,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,78 +794,75 @@
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="8">
         <f>SUM(C3:F3)</f>
         <v>0</v>
       </c>
       <c r="C3" s="7">
-        <f>COUNTIF($I$7:$I$1048576,C6)</f>
+        <f>COUNTIF($H$7:$H$1048576,C6)</f>
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f>COUNTIF($I$7:$I$1048576,"Fail")</f>
+        <f>COUNTIF($H$7:$H$1048576,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <f>COUNTIF($I$7:$I$1048576,"Pending")</f>
+        <f>COUNTIF($H$7:$H$1048576,"Pending")</f>
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <f>COUNTIF($I$7:$I$1048576,"Partial")</f>
+        <f>COUNTIF($H$7:$H$1048576,"Partial")</f>
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -860,10 +870,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -871,587 +880,530 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="H7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="12" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="F11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>4</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="F13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>6</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>7</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>8</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="H14" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
